--- a/App/platforms/android/assets/www/js/Lista_de_Locais.xlsx
+++ b/App/platforms/android/assets/www/js/Lista_de_Locais.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnunes.tech\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="Grid Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -571,14 +576,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1045,20 +1050,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1082,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1098,7 +1103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1106,7 +1111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1114,7 +1119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1122,7 +1127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1130,7 +1135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1138,7 +1143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,7 +1151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1154,7 +1159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1162,7 +1167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1178,7 +1183,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1186,7 +1191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1194,7 +1199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1202,7 +1207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1210,7 +1215,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1218,7 +1223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1226,7 +1231,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1234,7 +1239,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -1242,7 +1247,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -1250,7 +1255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -1258,7 +1263,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -1266,7 +1271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -1274,7 +1279,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -1282,7 +1287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -1290,7 +1295,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -1298,7 +1303,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -1306,7 +1311,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1314,7 +1319,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
@@ -1322,7 +1327,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -1330,7 +1335,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1338,7 +1343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -1346,7 +1351,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -1354,7 +1359,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -1362,7 +1367,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -1370,7 +1375,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -1378,7 +1383,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
@@ -1386,7 +1391,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -1394,7 +1399,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -1402,7 +1407,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -1410,7 +1415,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -1418,7 +1423,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -1426,7 +1431,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -1434,7 +1439,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
@@ -1442,7 +1447,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
@@ -1450,7 +1455,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>96</v>
       </c>
@@ -1458,7 +1463,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
@@ -1466,7 +1471,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
@@ -1474,7 +1479,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
@@ -1482,7 +1487,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>104</v>
       </c>
@@ -1490,7 +1495,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
@@ -1498,7 +1503,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
@@ -1506,7 +1511,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
@@ -1514,7 +1519,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
@@ -1522,7 +1527,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>114</v>
       </c>
@@ -1530,7 +1535,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>116</v>
       </c>
@@ -1538,7 +1543,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
@@ -1546,7 +1551,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -1554,7 +1559,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
@@ -1562,7 +1567,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>124</v>
       </c>
@@ -1570,7 +1575,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>126</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>128</v>
       </c>
@@ -1586,7 +1591,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>130</v>
       </c>
@@ -1594,7 +1599,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>132</v>
       </c>
@@ -1602,7 +1607,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
@@ -1610,7 +1615,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>136</v>
       </c>
@@ -1618,7 +1623,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>138</v>
       </c>
@@ -1626,7 +1631,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>140</v>
       </c>
@@ -1634,7 +1639,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>142</v>
       </c>
@@ -1642,7 +1647,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
@@ -1650,7 +1655,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>146</v>
       </c>
@@ -1658,7 +1663,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>148</v>
       </c>
@@ -1666,7 +1671,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>150</v>
       </c>
@@ -1674,7 +1679,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>152</v>
       </c>
@@ -1682,7 +1687,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>154</v>
       </c>
@@ -1690,7 +1695,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>156</v>
       </c>
@@ -1698,7 +1703,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>158</v>
       </c>
@@ -1706,7 +1711,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>160</v>
       </c>
@@ -1714,7 +1719,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>162</v>
       </c>
@@ -1722,7 +1727,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>164</v>
       </c>
@@ -1730,7 +1735,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>166</v>
       </c>
@@ -1738,7 +1743,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>168</v>
       </c>
@@ -1746,7 +1751,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>170</v>
       </c>
@@ -1754,7 +1759,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>172</v>
       </c>
@@ -1762,7 +1767,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>174</v>
       </c>
@@ -1770,7 +1775,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>176</v>
       </c>
@@ -1778,7 +1783,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>178</v>
       </c>
@@ -1786,7 +1791,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>180</v>
       </c>
@@ -1794,7 +1799,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>182</v>
       </c>
